--- a/학습자료/단답형/객관식_영어_복습_뜻.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_뜻.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>be about to 동사원형
-1. ~할 것 같다
-2. ~하기 위해
-3. 막 ~하려 하다</t>
+1. 자유로이 ~하다
+2. 막 ~하려 하다
+3. 반드시 ~하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 막 ~하려 하다</t>
+          <t>2, 막 ~하려 하다</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>be on the verge of 동명사
-1. 막 ~하려 하다
-2. ~하게 되다
-3. ~하는 경향이 있다</t>
+1. ~할 정도로 충분히 ~한
+2. 기꺼이 ~하다
+3. 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 막 ~하려 하다</t>
+          <t>3, 막 ~하려 하다</t>
         </is>
       </c>
     </row>
@@ -479,9 +479,9 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>be on the point of 동명사
-1. ~에 적임이다
+1. ~하는 것이 더 낫다
 2. 막 ~하려 하다
-3. ~하곤 했다</t>
+3. 금상첨화로</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,8 +494,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>be apt to 동사원형
-1. ~할 준비가 되어 있다
-2. 너무 ~해서 ~할 수 없는
+1. 솔직히 말하면
+2. 배웅하다, 쫓아내다, 이기다
 3. ~하는 경향이 있다</t>
         </is>
       </c>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>be free to 동사원형
-1. 유지하다
-2. 솔직히 말하면
-3. 자유로이 ~하다</t>
+1. 자유로이 ~하다
+2. 설상가상으로
+3. 유지하다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 자유로이 ~하다</t>
+          <t>1, 자유로이 ~하다</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>be likely to 동사원형
-1. ~할 것 같다
-2. 설상가상으로
-3. 솔직히 말하면</t>
+1. 막다
+2. ~할 것 같다
+3. ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, ~할 것 같다</t>
+          <t>2, ~할 것 같다</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>be ready to 동사원형
-1. ~할 것 같다
-2. ~할 준비가 되어 있다
-3. ~할 정도로 충분히 ~한</t>
+1. ~할 사람이 아니다
+2. ~하곤 했다
+3. ~할 준비가 되어 있다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, ~할 준비가 되어 있다</t>
+          <t>3, ~할 준비가 되어 있다</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>be sure to 동사원형
-1. 너무 ~해서 ~할 수 없는
-2. 반드시 ~하다
-3. ~할 준비가 되어 있다</t>
+1. 반드시 ~하다
+2. ~에 기대다, 의지하다
+3. 불안하다, 확실하지 않다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 반드시 ~하다</t>
+          <t>1, 반드시 ~하다</t>
         </is>
       </c>
     </row>
@@ -569,9 +569,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>be willing to 동사원형
-1. ~에 적임이다
+1. ~에게 불리하게 작용하다
 2. 기꺼이 ~하다
-3. ~하는 것이 더 낫다</t>
+3. ~할 준비가 되어 있다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>cannot but 동사원형
-1. 솔직히 말하면
-2. ~할 정도로 충분히 ~한
-3. ~하지 않을 수 없다</t>
+1. ~하곤 했다
+2. ~하지 않을 수 없다
+3. ~할 사람이 아니다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, ~하지 않을 수 없다</t>
+          <t>2, ~하지 않을 수 없다</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>cannot help 동명사
-1. ~하지 않을 수 없다
-2. 금상첨화로
-3. 오히려 ~하고 싶다</t>
+1. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+2. ~하는 경향이 있다
+3. ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, ~하지 않을 수 없다</t>
+          <t>3, ~하지 않을 수 없다</t>
         </is>
       </c>
     </row>
@@ -615,8 +615,8 @@
         <is>
           <t>cannot help but 동사원형
 1. ~하지 않을 수 없다
-2. 솔직히 말하면
-3. ~할 사람이 아니다</t>
+2. 막 ~하려 하다
+3. 불안하다, 확실하지 않다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>have no choice but to 동사원형
-1. 오히려 ~하고 싶다
+1. 설상가상으로
 2. ~하지 않을 수 없다
-3. ~할 것 같다</t>
+3. 도망가다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>can't refrain from 동명사
-1. ~하지 않을 수 없다
-2. 오히려 ~하고 싶다
-3. 막다</t>
+1. 막다
+2. ~에 기대다, 의지하다
+3. ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, ~하지 않을 수 없다</t>
+          <t>3, ~하지 않을 수 없다</t>
         </is>
       </c>
     </row>
@@ -659,8 +659,8 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>enough to 동사원형
-1. 기꺼이 ~하다
-2. 유지하다
+1. 자유로이 ~하다
+2. 의심을 받다
 3. ~할 정도로 충분히 ~한</t>
         </is>
       </c>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>had better 동사원형
-1. ~하는 것이 더 낫다
-2. ~에 적임이다
-3. 기꺼이 ~하다</t>
+1. A를 B로 기소[고소]하다
+2. 도망가다
+3. ~하는 것이 더 낫다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, ~하는 것이 더 낫다</t>
+          <t>3, ~하는 것이 더 낫다</t>
         </is>
       </c>
     </row>
@@ -689,8 +689,8 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>have no choice but to 동사원형
-1. 반드시 ~하다
-2. ~하곤 했다
+1. ~할 사람이 아니다
+2. 기꺼이 ~하다
 3. ~하지 않을 수 없다</t>
         </is>
       </c>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>in order to 동사원형, so as to 동사원형
-1. 기꺼이 ~하다
-2. ~하기 위해
-3. ~할 정도로 충분히 ~한</t>
+1. 자유로이 ~하다
+2. ~에 있어서 증가하다
+3. ~하기 위해</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, ~하기 위해</t>
+          <t>3, ~하기 위해</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>so ~ as to 동사원형
-1. ~하기 위해
-2. 매우 ~해서 ~하다
-3. 자유로이 ~하다</t>
+1. ~에게 불리하게 작용하다
+2. ~하지 않을 수 없다
+3. 매우 ~해서 ~하다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 매우 ~해서 ~하다</t>
+          <t>3, 매우 ~해서 ~하다</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
         <is>
           <t>to be frank with you
 1. 솔직히 말하면
-2. 오히려 ~하고 싶다
+2. 매우 ~해서 ~하다
 3. 금상첨화로</t>
         </is>
       </c>
@@ -750,8 +750,8 @@
         <is>
           <t>to make matters worse
 1. 설상가상으로
-2. 막 ~하려 하다
-3. ~에 적임이다</t>
+2. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+3. 양도하다, 고치다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,8 +764,8 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>to make matters better
-1. ~할 것 같다
-2. 기꺼이 ~하다
+1. 오히려 ~하고 싶다
+2. 배제하다
 3. 금상첨화로</t>
         </is>
       </c>
@@ -779,8 +779,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>too ~ to 동사원형
-1. ~하곤 했다
-2. 반드시 ~하다
+1. ~하지 않을 수 없다
+2. ~에 적임이다
 3. 너무 ~해서 ~할 수 없는</t>
         </is>
       </c>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>used to 동사원형
-1. 반드시 ~하다
-2. ~하는 것이 더 낫다
-3. ~하곤 했다</t>
+1. ~하곤 했다
+2. A를 B의 탓으로 돌리다
+3. 막다</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, ~하곤 했다</t>
+          <t>1, ~하곤 했다</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>would rather 동사원형
-1. ~하게 되다
-2. 오히려 ~하고 싶다
-3. 솔직히 말하면</t>
+1. 너무 ~해서 ~할 수 없는
+2. 억압하다
+3. 오히려 ~하고 싶다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 오히려 ~하고 싶다</t>
+          <t>3, 오히려 ~하고 싶다</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>be the last man to 동사원형
-1. ~할 정도로 충분히 ~한
-2. ~하게 되다
-3. ~할 사람이 아니다</t>
+1. A가 B 못하도록 설득하다
+2. ~할 사람이 아니다
+3. ~에게 불리하게 작용하다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, ~할 사람이 아니다</t>
+          <t>2, ~할 사람이 아니다</t>
         </is>
       </c>
     </row>
@@ -839,8 +839,8 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>be cut out to 동사원형
-1. 솔직히 말하면
-2. 설상가상으로
+1. 매우 ~해서 ~하다
+2. A를 B의 탓으로 돌리다
 3. ~에 적임이다</t>
         </is>
       </c>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>come to 동사원형
-1. 너무 ~해서 ~할 수 없는
-2. ~하게 되다
-3. ~하곤 했다</t>
+1. 솔직히 말하면
+2. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+3. ~하게 되다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, ~하게 되다</t>
+          <t>3, ~하게 되다</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>keep 목적어 from 동명사
-1. 막다
-2. 너무 ~해서 ~할 수 없는
-3. 솔직히 말하면</t>
+1. ~할 정도로 충분히 ~한
+2. ~하는 경향이 있다
+3. 막다</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 막다</t>
+          <t>3, 막다</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,254 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>keep 목적어 (on) 동명사
-1. ~하는 경향이 있다
-2. 유지하다
+1. 억압하다
+2. 의심을 받다
+3. 유지하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 유지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>be susceptible to
+1. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+2. ~하지 않을 수 없다
+3. ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>be suppressive
+1. 억압하다
+2. 너무 ~해서 ~할 수 없는
+3. 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 억압하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>be suspensive
+1. 불안하다, 확실하지 않다
+2. 배제하다
+3. ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 불안하다, 확실하지 않다</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>be suspected
+1. ~할 사람이 아니다
+2. 의심을 받다
 3. ~하지 않을 수 없다</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 유지하다</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 의심을 받다</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>accuse A of B
+1. 자유로이 ~하다
+2. ~할 정도로 충분히 ~한
+3. A를 B로 기소[고소]하다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, A를 B로 기소[고소]하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>attribute A to B
+1. A를 B의 탓으로 돌리다
+2. A가 B 못하도록 설득하다
+3. 매우 ~해서 ~하다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, A를 B의 탓으로 돌리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>see off
+1. 막 ~하려 하다
+2. 배웅하다, 쫓아내다, 이기다
+3. 억압하다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 배웅하다, 쫓아내다, 이기다</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>rule out
+1. 유지하다
+2. ~하기 위해
+3. 배제하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 배제하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>be sentenced to
+1. ~의 형을 받다
+2. ~에 있어서 증가하다
+3. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, ~의 형을 받다</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>resort to
+1. ~에 기대다, 의지하다
+2. ~하는 경향이 있다
+3. ~와 화해하다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, ~에 기대다, 의지하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>make up with
+1. ~와 화해하다
+2. ~에 있어서 증가하다
+3. ~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, ~와 화해하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>make away
+1. ~할 사람이 아니다
+2. 도망가다
+3. A를 B로 기소[고소]하다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 도망가다</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>make over
+1. 양도하다, 고치다
+2. 막 ~하려 하다
+3. 반드시 ~하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1, 양도하다, 고치다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>make against
+1. 막다
+2. ~에게 불리하게 작용하다
+3. 배웅하다, 쫓아내다, 이기다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, ~에게 불리하게 작용하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>increase in
+1. ~하지 않을 수 없다
+2. ~에 있어서 증가하다
+3. 금상첨화로</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, ~에 있어서 증가하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>talk A out of B
+1. 기꺼이 ~하다
+2. ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+3. A가 B 못하도록 설득하다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3, A가 B 못하도록 설득하다</t>
         </is>
       </c>
     </row>
